--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121023a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121023a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0.7006971388827247</v>
+      </c>
+      <c r="C5">
+        <v>0.699592194727477</v>
+      </c>
+      <c r="D5">
+        <v>0.7440967620751812</v>
+      </c>
+      <c r="E5">
+        <v>0.7804105407800235</v>
+      </c>
+      <c r="F5">
+        <v>0.9078572465655519</v>
+      </c>
+      <c r="G5">
+        <v>1.403045057963147</v>
+      </c>
+      <c r="H5">
+        <v>0.9556825476124285</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.7006971388827247</v>
+        <v>1.493477155056306</v>
       </c>
       <c r="C6">
-        <v>0.699592194727477</v>
+        <v>1.430355237574423</v>
       </c>
       <c r="D6">
-        <v>0.7440967620751812</v>
+        <v>1.613697579993041</v>
       </c>
       <c r="E6">
-        <v>0.7804105407800235</v>
+        <v>1.481761452261324</v>
       </c>
       <c r="F6">
-        <v>0.9078572465655519</v>
+        <v>1.812018080366819</v>
       </c>
       <c r="G6">
-        <v>1.403045057963147</v>
+        <v>3.288647252027231</v>
       </c>
       <c r="H6">
-        <v>0.9556825476124285</v>
+        <v>1.824880185534455</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1.493477155056306</v>
+        <v>3.397100745969429</v>
       </c>
       <c r="C7">
-        <v>1.430355237574423</v>
+        <v>3.365967680970556</v>
       </c>
       <c r="D7">
-        <v>1.613697579993041</v>
+        <v>3.478946217880297</v>
       </c>
       <c r="E7">
-        <v>1.481761452261324</v>
+        <v>3.32607778025787</v>
       </c>
       <c r="F7">
-        <v>1.812018080366819</v>
+        <v>3.539612428526985</v>
       </c>
       <c r="G7">
-        <v>3.288647252027231</v>
+        <v>5.338905859801104</v>
       </c>
       <c r="H7">
-        <v>1.824880185534455</v>
+        <v>3.561735960963752</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>2.799733739902242</v>
+      </c>
+      <c r="C8">
+        <v>2.868446494254792</v>
+      </c>
+      <c r="D8">
+        <v>2.961043930156892</v>
+      </c>
+      <c r="E8">
+        <v>3.123268870469983</v>
+      </c>
+      <c r="F8">
+        <v>3.077066425510282</v>
+      </c>
+      <c r="G8">
+        <v>5.157025240230544</v>
+      </c>
+      <c r="H8">
+        <v>3.291830750909619</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>3.397100745969429</v>
+        <v>11.45605862855805</v>
       </c>
       <c r="C9">
-        <v>3.365967680970556</v>
+        <v>11.00045835451473</v>
       </c>
       <c r="D9">
-        <v>3.478946217880297</v>
+        <v>12.04514383327654</v>
       </c>
       <c r="E9">
-        <v>3.32607778025787</v>
+        <v>15.01738722462592</v>
       </c>
       <c r="F9">
-        <v>3.539612428526985</v>
+        <v>10.62666032589985</v>
       </c>
       <c r="G9">
-        <v>5.338905859801104</v>
+        <v>21.78260503750971</v>
       </c>
       <c r="H9">
-        <v>3.561735960963752</v>
+        <v>10.35426930007584</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>2.799733739902242</v>
+        <v>4.276446206546409</v>
       </c>
       <c r="C10">
-        <v>2.868446494254792</v>
+        <v>4.109031838505013</v>
       </c>
       <c r="D10">
-        <v>2.961043930156892</v>
+        <v>4.559244039751499</v>
       </c>
       <c r="E10">
-        <v>3.123268870469983</v>
+        <v>4.969378041082455</v>
       </c>
       <c r="F10">
-        <v>3.077066425510282</v>
+        <v>4.696878190377769</v>
       </c>
       <c r="G10">
-        <v>5.157025240230544</v>
+        <v>13.02961323369042</v>
       </c>
       <c r="H10">
-        <v>3.291830750909619</v>
+        <v>4.660098951634417</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>11.45605862855805</v>
+        <v>4.376312156228948</v>
       </c>
       <c r="C11">
-        <v>11.00045835451473</v>
+        <v>4.602195572510944</v>
       </c>
       <c r="D11">
-        <v>12.04514383327654</v>
+        <v>4.571757029331318</v>
       </c>
       <c r="E11">
-        <v>15.01738722462592</v>
+        <v>6.689363317662469</v>
       </c>
       <c r="F11">
-        <v>10.62666032589985</v>
+        <v>4.122989748565124</v>
       </c>
       <c r="G11">
-        <v>21.78260503750971</v>
+        <v>5.79703144382406</v>
       </c>
       <c r="H11">
-        <v>10.35426930007584</v>
+        <v>4.240160147517347</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>4.276446206546409</v>
+        <v>8.557475742034605</v>
       </c>
       <c r="C12">
-        <v>4.109031838505013</v>
+        <v>8.423666259714535</v>
       </c>
       <c r="D12">
-        <v>4.559244039751499</v>
+        <v>8.796665365895445</v>
       </c>
       <c r="E12">
-        <v>4.969378041082455</v>
+        <v>8.80645373067177</v>
       </c>
       <c r="F12">
-        <v>4.696878190377769</v>
+        <v>8.528865016720108</v>
       </c>
       <c r="G12">
-        <v>13.02961323369042</v>
+        <v>11.50948961168409</v>
       </c>
       <c r="H12">
-        <v>4.660098951634417</v>
+        <v>8.530076169137081</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>4.376312156228948</v>
+        <v>8.76438314984467</v>
       </c>
       <c r="C13">
-        <v>4.602195572510944</v>
+        <v>8.442079567605811</v>
       </c>
       <c r="D13">
-        <v>4.571757029331318</v>
+        <v>9.557949019076688</v>
       </c>
       <c r="E13">
-        <v>6.689363317662469</v>
+        <v>11.71006372948207</v>
       </c>
       <c r="F13">
-        <v>4.122989748565124</v>
+        <v>7.78310021773393</v>
       </c>
       <c r="G13">
-        <v>5.79703144382406</v>
+        <v>13.77523728489339</v>
       </c>
       <c r="H13">
-        <v>4.240160147517347</v>
+        <v>7.612810033239758</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>8.557475742034605</v>
+        <v>3.128747707857803</v>
       </c>
       <c r="C14">
-        <v>8.423666259714535</v>
+        <v>2.496381216179003</v>
       </c>
       <c r="D14">
-        <v>8.796665365895445</v>
+        <v>3.929552657737186</v>
       </c>
       <c r="E14">
-        <v>8.80645373067177</v>
+        <v>3.488123437081244</v>
       </c>
       <c r="F14">
-        <v>8.528865016720108</v>
+        <v>3.478831430140461</v>
       </c>
       <c r="G14">
-        <v>11.50948961168409</v>
+        <v>6.010486912922588</v>
       </c>
       <c r="H14">
-        <v>8.530076169137081</v>
+        <v>3.347795780931667</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>8.76438314984467</v>
+        <v>1.671660636326493</v>
       </c>
       <c r="C15">
-        <v>8.442079567605811</v>
+        <v>1.593930277547595</v>
       </c>
       <c r="D15">
-        <v>9.557949019076688</v>
+        <v>1.783072970454697</v>
       </c>
       <c r="E15">
-        <v>11.71006372948207</v>
+        <v>1.899642536410373</v>
       </c>
       <c r="F15">
-        <v>7.78310021773393</v>
+        <v>1.821026294444619</v>
       </c>
       <c r="G15">
-        <v>13.77523728489339</v>
+        <v>2.960686417109789</v>
       </c>
       <c r="H15">
-        <v>7.612810033239758</v>
+        <v>1.857054248575162</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>3.128747707857803</v>
+        <v>8.004064990087455</v>
       </c>
       <c r="C16">
-        <v>2.496381216179003</v>
+        <v>7.455689188990165</v>
       </c>
       <c r="D16">
-        <v>3.929552657737186</v>
+        <v>8.625977385613508</v>
       </c>
       <c r="E16">
-        <v>3.488123437081244</v>
+        <v>8.044260003219371</v>
       </c>
       <c r="F16">
-        <v>3.478831430140461</v>
+        <v>8.7956806147176</v>
       </c>
       <c r="G16">
-        <v>6.010486912922588</v>
+        <v>8.152895174527059</v>
       </c>
       <c r="H16">
-        <v>3.347795780931667</v>
+        <v>9.29283692321688</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>1.671660636326493</v>
+        <v>5.660274782198973</v>
       </c>
       <c r="C17">
-        <v>1.593930277547595</v>
+        <v>5.048366860295426</v>
       </c>
       <c r="D17">
-        <v>1.783072970454697</v>
+        <v>6.269864590741218</v>
       </c>
       <c r="E17">
-        <v>1.899642536410373</v>
+        <v>7.36594166844625</v>
       </c>
       <c r="F17">
-        <v>1.821026294444619</v>
+        <v>5.712985905990586</v>
       </c>
       <c r="G17">
-        <v>2.960686417109789</v>
+        <v>14.69479919235982</v>
       </c>
       <c r="H17">
-        <v>1.857054248575162</v>
+        <v>5.410540234974242</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>8.004064990087455</v>
+        <v>4.07463890643841</v>
       </c>
       <c r="C18">
-        <v>7.455689188990165</v>
+        <v>3.776373361904417</v>
       </c>
       <c r="D18">
-        <v>8.625977385613508</v>
+        <v>4.453970591167084</v>
       </c>
       <c r="E18">
-        <v>8.044260003219371</v>
+        <v>3.787229230185474</v>
       </c>
       <c r="F18">
-        <v>8.7956806147176</v>
+        <v>4.517394012113559</v>
       </c>
       <c r="G18">
-        <v>8.152895174527059</v>
+        <v>8.773344958130345</v>
       </c>
       <c r="H18">
-        <v>9.29283692321688</v>
+        <v>4.454158692189392</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>5.660274782198973</v>
+        <v>9.048653178928317</v>
       </c>
       <c r="C19">
-        <v>5.048366860295426</v>
+        <v>8.92830790118979</v>
       </c>
       <c r="D19">
-        <v>6.269864590741218</v>
+        <v>9.312784715293839</v>
       </c>
       <c r="E19">
-        <v>7.36594166844625</v>
+        <v>9.088833841871866</v>
       </c>
       <c r="F19">
-        <v>5.712985905990586</v>
+        <v>9.259214182847009</v>
       </c>
       <c r="G19">
-        <v>14.69479919235982</v>
+        <v>11.49274301576103</v>
       </c>
       <c r="H19">
-        <v>5.410540234974242</v>
+        <v>9.479094241294092</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>4.07463890643841</v>
+        <v>5.584940896054857</v>
       </c>
       <c r="C20">
-        <v>3.776373361904417</v>
+        <v>5.297019968193077</v>
       </c>
       <c r="D20">
-        <v>4.453970591167084</v>
+        <v>5.901246380905792</v>
       </c>
       <c r="E20">
-        <v>3.787229230185474</v>
+        <v>7.141147034409292</v>
       </c>
       <c r="F20">
-        <v>4.517394012113559</v>
+        <v>5.313242978114399</v>
       </c>
       <c r="G20">
-        <v>8.773344958130345</v>
+        <v>6.921975428972462</v>
       </c>
       <c r="H20">
-        <v>4.454158692189392</v>
+        <v>5.519254357478987</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>9.048653178928317</v>
+        <v>2.756252961321327</v>
       </c>
       <c r="C21">
-        <v>8.92830790118979</v>
+        <v>2.995372884932341</v>
       </c>
       <c r="D21">
-        <v>9.312784715293839</v>
+        <v>2.645941607340438</v>
       </c>
       <c r="E21">
-        <v>9.088833841871866</v>
+        <v>3.110004816489339</v>
       </c>
       <c r="F21">
-        <v>9.259214182847009</v>
+        <v>2.952977817077343</v>
       </c>
       <c r="G21">
-        <v>11.49274301576103</v>
+        <v>6.480505524780043</v>
       </c>
       <c r="H21">
-        <v>9.479094241294092</v>
+        <v>2.992352985805404</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>5.584940896054857</v>
+        <v>8.569540049541555</v>
       </c>
       <c r="C22">
-        <v>5.297019968193077</v>
+        <v>7.86108646280681</v>
       </c>
       <c r="D22">
-        <v>5.901246380905792</v>
+        <v>9.279432653716409</v>
       </c>
       <c r="E22">
-        <v>7.141147034409292</v>
+        <v>12.31669023711709</v>
       </c>
       <c r="F22">
-        <v>5.313242978114399</v>
+        <v>8.367293657515834</v>
       </c>
       <c r="G22">
-        <v>6.921975428972462</v>
+        <v>11.53595941246714</v>
       </c>
       <c r="H22">
-        <v>5.519254357478987</v>
+        <v>8.799296430414188</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>2.756252961321327</v>
+        <v>5.551153259693107</v>
       </c>
       <c r="C23">
-        <v>2.995372884932341</v>
+        <v>6.400862244665305</v>
       </c>
       <c r="D23">
-        <v>2.645941607340438</v>
+        <v>5.147064379353981</v>
       </c>
       <c r="E23">
-        <v>3.110004816489339</v>
+        <v>7.104140619491832</v>
       </c>
       <c r="F23">
-        <v>2.952977817077343</v>
+        <v>5.453065152438271</v>
       </c>
       <c r="G23">
-        <v>6.480505524780043</v>
+        <v>11.49576082867021</v>
       </c>
       <c r="H23">
-        <v>2.992352985805404</v>
+        <v>5.652140203977453</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>8.569540049541555</v>
+        <v>2.717221721983847</v>
       </c>
       <c r="C24">
-        <v>7.86108646280681</v>
+        <v>2.579792554493431</v>
       </c>
       <c r="D24">
-        <v>9.279432653716409</v>
+        <v>2.952622441996626</v>
       </c>
       <c r="E24">
-        <v>12.31669023711709</v>
+        <v>3.595076394770903</v>
       </c>
       <c r="F24">
-        <v>8.367293657515834</v>
+        <v>3.029431688076834</v>
       </c>
       <c r="G24">
-        <v>11.53595941246714</v>
+        <v>4.382751739252297</v>
       </c>
       <c r="H24">
-        <v>8.799296430414188</v>
+        <v>2.988580144804423</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>5.551153259693107</v>
+        <v>0.9416625045584061</v>
       </c>
       <c r="C25">
-        <v>6.400862244665305</v>
+        <v>0.9457984392997021</v>
       </c>
       <c r="D25">
-        <v>5.147064379353981</v>
+        <v>1.00976525304489</v>
       </c>
       <c r="E25">
-        <v>7.104140619491832</v>
+        <v>1.099213896262621</v>
       </c>
       <c r="F25">
-        <v>5.453065152438271</v>
+        <v>1.155153958562273</v>
       </c>
       <c r="G25">
-        <v>11.49576082867021</v>
+        <v>1.914819447415016</v>
       </c>
       <c r="H25">
-        <v>5.652140203977453</v>
+        <v>1.212881961510793</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>2.717221721983847</v>
+        <v>1.872325235677548</v>
       </c>
       <c r="C26">
-        <v>2.579792554493431</v>
+        <v>1.849936163565545</v>
       </c>
       <c r="D26">
-        <v>2.952622441996626</v>
+        <v>1.976440487362646</v>
       </c>
       <c r="E26">
-        <v>3.595076394770903</v>
+        <v>2.254525246015203</v>
       </c>
       <c r="F26">
-        <v>3.029431688076834</v>
+        <v>2.016901690751915</v>
       </c>
       <c r="G26">
-        <v>4.382751739252297</v>
+        <v>3.058427934336676</v>
       </c>
       <c r="H26">
-        <v>2.988580144804423</v>
+        <v>2.059223880320989</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.9416625045584061</v>
+        <v>3.820866609919103</v>
       </c>
       <c r="C27">
-        <v>0.9457984392997021</v>
+        <v>3.712779475081575</v>
       </c>
       <c r="D27">
-        <v>1.00976525304489</v>
+        <v>4.341633040877873</v>
       </c>
       <c r="E27">
-        <v>1.099213896262621</v>
+        <v>4.591037829601102</v>
       </c>
       <c r="F27">
-        <v>1.155153958562273</v>
+        <v>4.278704966822766</v>
       </c>
       <c r="G27">
-        <v>1.914819447415016</v>
+        <v>7.558234882328136</v>
       </c>
       <c r="H27">
-        <v>1.212881961510793</v>
+        <v>4.604065764650269</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>1.872325235677548</v>
+        <v>2.27049841959801</v>
       </c>
       <c r="C28">
-        <v>1.849936163565545</v>
+        <v>2.352072327325425</v>
       </c>
       <c r="D28">
-        <v>1.976440487362646</v>
+        <v>2.357219853733232</v>
       </c>
       <c r="E28">
-        <v>2.254525246015203</v>
+        <v>2.88915175267143</v>
       </c>
       <c r="F28">
-        <v>2.016901690751915</v>
+        <v>2.698260701037416</v>
       </c>
       <c r="G28">
-        <v>3.058427934336676</v>
+        <v>3.934321143841288</v>
       </c>
       <c r="H28">
-        <v>2.059223880320989</v>
+        <v>2.851093449126763</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>3.820866609919103</v>
+        <v>1.299701116255888</v>
       </c>
       <c r="C29">
-        <v>3.712779475081575</v>
+        <v>1.301741418166295</v>
       </c>
       <c r="D29">
-        <v>4.341633040877873</v>
+        <v>1.421451595419515</v>
       </c>
       <c r="E29">
-        <v>4.591037829601102</v>
+        <v>1.445960525245666</v>
       </c>
       <c r="F29">
-        <v>4.278704966822766</v>
+        <v>1.783191834517231</v>
       </c>
       <c r="G29">
-        <v>7.558234882328136</v>
+        <v>3.258243534346394</v>
       </c>
       <c r="H29">
-        <v>4.604065764650269</v>
+        <v>1.91819370117347</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>2.27049841959801</v>
+        <v>1.370830733887644</v>
       </c>
       <c r="C30">
-        <v>2.352072327325425</v>
+        <v>1.348079384956707</v>
       </c>
       <c r="D30">
-        <v>2.357219853733232</v>
+        <v>1.449532280402686</v>
       </c>
       <c r="E30">
-        <v>2.88915175267143</v>
+        <v>1.490045449338303</v>
       </c>
       <c r="F30">
-        <v>2.698260701037416</v>
+        <v>1.781783107137463</v>
       </c>
       <c r="G30">
-        <v>3.934321143841288</v>
+        <v>2.784242319045342</v>
       </c>
       <c r="H30">
-        <v>2.851093449126763</v>
+        <v>1.956187363983048</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>1.299701116255888</v>
+        <v>2.196571755331435</v>
       </c>
       <c r="C31">
-        <v>1.301741418166295</v>
+        <v>2.169872153179015</v>
       </c>
       <c r="D31">
-        <v>1.421451595419515</v>
+        <v>2.388615996717964</v>
       </c>
       <c r="E31">
-        <v>1.445960525245666</v>
+        <v>2.302139229197608</v>
       </c>
       <c r="F31">
-        <v>1.783191834517231</v>
+        <v>2.982054944115066</v>
       </c>
       <c r="G31">
-        <v>3.258243534346394</v>
+        <v>4.599176270582457</v>
       </c>
       <c r="H31">
-        <v>1.91819370117347</v>
+        <v>3.189947169764456</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>1.370830733887644</v>
+        <v>3.68014068075559</v>
       </c>
       <c r="C32">
-        <v>1.348079384956707</v>
+        <v>3.454352007377039</v>
       </c>
       <c r="D32">
-        <v>1.449532280402686</v>
+        <v>3.966095533273659</v>
       </c>
       <c r="E32">
-        <v>1.490045449338303</v>
+        <v>3.914371636584687</v>
       </c>
       <c r="F32">
-        <v>1.781783107137463</v>
+        <v>3.561015319746415</v>
       </c>
       <c r="G32">
-        <v>2.784242319045342</v>
+        <v>5.901140428594061</v>
       </c>
       <c r="H32">
-        <v>1.956187363983048</v>
+        <v>3.947379896049716</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>2.196571755331435</v>
+        <v>1.640927281200707</v>
       </c>
       <c r="C33">
-        <v>2.169872153179015</v>
+        <v>1.715846034705353</v>
       </c>
       <c r="D33">
-        <v>2.388615996717964</v>
+        <v>1.6442889951643</v>
       </c>
       <c r="E33">
-        <v>2.302139229197608</v>
+        <v>1.675858580962141</v>
       </c>
       <c r="F33">
-        <v>2.982054944115066</v>
+        <v>2.5914885417739</v>
       </c>
       <c r="G33">
-        <v>4.599176270582457</v>
+        <v>4.149754775020637</v>
       </c>
       <c r="H33">
-        <v>3.189947169764456</v>
+        <v>2.789020564164013</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>3.68014068075559</v>
+        <v>1.411729464675901</v>
       </c>
       <c r="C34">
-        <v>3.454352007377039</v>
+        <v>1.459668995638385</v>
       </c>
       <c r="D34">
-        <v>3.966095533273659</v>
+        <v>1.536584000617008</v>
       </c>
       <c r="E34">
-        <v>3.914371636584687</v>
+        <v>1.600351256671607</v>
       </c>
       <c r="F34">
-        <v>3.561015319746415</v>
+        <v>1.723639418381639</v>
       </c>
       <c r="G34">
-        <v>5.901140428594061</v>
+        <v>3.060821377747543</v>
       </c>
       <c r="H34">
-        <v>3.947379896049716</v>
+        <v>1.760305977710202</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>1.640927281200707</v>
+        <v>3.209940761680517</v>
       </c>
       <c r="C35">
-        <v>1.715846034705353</v>
+        <v>3.305770252653994</v>
       </c>
       <c r="D35">
-        <v>1.6442889951643</v>
+        <v>3.314514397448112</v>
       </c>
       <c r="E35">
-        <v>1.675858580962141</v>
+        <v>3.165965067798285</v>
       </c>
       <c r="F35">
-        <v>2.5914885417739</v>
+        <v>3.731660377210302</v>
       </c>
       <c r="G35">
-        <v>4.149754775020637</v>
+        <v>5.834325126106514</v>
       </c>
       <c r="H35">
-        <v>2.789020564164013</v>
+        <v>3.749490030997287</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>1.411729464675901</v>
+        <v>2.77654037066981</v>
       </c>
       <c r="C36">
-        <v>1.459668995638385</v>
+        <v>3.231149079747463</v>
       </c>
       <c r="D36">
-        <v>1.536584000617008</v>
+        <v>2.647635607631215</v>
       </c>
       <c r="E36">
-        <v>1.600351256671607</v>
+        <v>4.089308202968292</v>
       </c>
       <c r="F36">
-        <v>1.723639418381639</v>
+        <v>3.616419374638118</v>
       </c>
       <c r="G36">
-        <v>3.060821377747543</v>
+        <v>5.94953139165065</v>
       </c>
       <c r="H36">
-        <v>1.760305977710202</v>
+        <v>3.612095045633005</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>3.209940761680517</v>
+        <v>2.212800153550007</v>
       </c>
       <c r="C37">
-        <v>3.305770252653994</v>
+        <v>2.163605390757528</v>
       </c>
       <c r="D37">
-        <v>3.314514397448112</v>
+        <v>2.574080208747711</v>
       </c>
       <c r="E37">
-        <v>3.165965067798285</v>
+        <v>2.526912274958109</v>
       </c>
       <c r="F37">
-        <v>3.731660377210302</v>
+        <v>2.582384948681153</v>
       </c>
       <c r="G37">
-        <v>5.834325126106514</v>
+        <v>4.659424951902824</v>
       </c>
       <c r="H37">
-        <v>3.749490030997287</v>
+        <v>2.692751340005902</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>2.77654037066981</v>
+        <v>3.731641278420229</v>
       </c>
       <c r="C38">
-        <v>3.231149079747463</v>
+        <v>3.675302146628663</v>
       </c>
       <c r="D38">
-        <v>2.647635607631215</v>
+        <v>4.007827837110157</v>
       </c>
       <c r="E38">
-        <v>4.089308202968292</v>
+        <v>3.611562673602033</v>
       </c>
       <c r="F38">
-        <v>3.616419374638118</v>
+        <v>4.325510589784596</v>
       </c>
       <c r="G38">
-        <v>5.94953139165065</v>
+        <v>8.143091484409547</v>
       </c>
       <c r="H38">
-        <v>3.612095045633005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>2.212800153550007</v>
-      </c>
-      <c r="C39">
-        <v>2.163605390757528</v>
-      </c>
-      <c r="D39">
-        <v>2.574080208747711</v>
-      </c>
-      <c r="E39">
-        <v>2.526912274958109</v>
-      </c>
-      <c r="F39">
-        <v>2.582384948681153</v>
-      </c>
-      <c r="G39">
-        <v>4.659424951902824</v>
-      </c>
-      <c r="H39">
-        <v>2.692751340005902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>3.731641278420229</v>
-      </c>
-      <c r="C40">
-        <v>3.675302146628663</v>
-      </c>
-      <c r="D40">
-        <v>4.007827837110157</v>
-      </c>
-      <c r="E40">
-        <v>3.611562673602033</v>
-      </c>
-      <c r="F40">
-        <v>4.325510589784596</v>
-      </c>
-      <c r="G40">
-        <v>8.143091484409547</v>
-      </c>
-      <c r="H40">
         <v>4.293185569947054</v>
       </c>
     </row>
